--- a/dataset/alltime_population.xlsx
+++ b/dataset/alltime_population.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">행정구역별</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">1925년 성비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1940년 총인구(명)</t>
   </si>
   <si>
     <t xml:space="preserve">1940년 남자인구(명)</t>
@@ -179,7 +182,7 @@
     <t xml:space="preserve">2005년 남자인구(명)</t>
   </si>
   <si>
-    <t xml:space="preserve">20005년 여자인구(명)</t>
+    <t xml:space="preserve">2005년 여자인구(명)</t>
   </si>
   <si>
     <t xml:space="preserve">2005년 성비</t>
@@ -771,264 +774,264 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="n">
         <v>285225</v>
@@ -1297,10 +1300,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="n">
         <v>221995</v>
@@ -1569,10 +1572,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="n">
         <v>217811</v>
@@ -1841,10 +1844,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>195131</v>
@@ -2113,10 +2116,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="n">
         <v>147845</v>
@@ -2385,10 +2388,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
         <v>135030</v>
@@ -2657,10 +2660,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
         <v>128417</v>
@@ -2929,10 +2932,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
         <v>116504</v>
@@ -3201,10 +3204,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" t="n">
         <v>102395</v>
@@ -3473,10 +3476,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>83778</v>
@@ -3745,10 +3748,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" t="n">
         <v>73780</v>
@@ -4017,10 +4020,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" t="n">
         <v>63417</v>
@@ -4289,10 +4292,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
         <v>45137</v>
@@ -4561,10 +4564,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" t="n">
         <v>38484</v>
@@ -4833,10 +4836,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" t="n">
         <v>20767</v>
@@ -5105,10 +5108,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" t="n">
         <v>10452</v>
@@ -5369,10 +5372,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -5473,10 +5476,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" t="n">
         <v>3074</v>
@@ -5729,10 +5732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" t="n">
         <v>657</v>
@@ -5929,10 +5932,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" t="n">
         <v>202682</v>
@@ -6201,10 +6204,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="n">
         <v>162772</v>
@@ -6473,10 +6476,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="n">
         <v>150219</v>
@@ -6745,10 +6748,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="n">
         <v>132449</v>
@@ -7017,10 +7020,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" t="n">
         <v>99163</v>
@@ -7289,10 +7292,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" t="n">
         <v>97568</v>
@@ -7561,10 +7564,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" t="n">
         <v>87260</v>
@@ -7833,10 +7836,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" t="n">
         <v>80777</v>
@@ -8105,10 +8108,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" t="n">
         <v>70122</v>
@@ -8377,10 +8380,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
         <v>62059</v>
@@ -8649,10 +8652,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" t="n">
         <v>50782</v>
@@ -8921,10 +8924,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" t="n">
         <v>43179</v>
@@ -9193,10 +9196,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" t="n">
         <v>32256</v>
@@ -9465,10 +9468,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" t="n">
         <v>26231</v>
@@ -9737,10 +9740,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" t="n">
         <v>14776</v>
@@ -10009,10 +10012,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" t="n">
         <v>7577</v>
@@ -10273,10 +10276,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -10377,10 +10380,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" t="n">
         <v>2030</v>
@@ -10633,10 +10636,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
         <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>108</v>
       </c>
       <c r="C39" t="n">
         <v>429</v>
@@ -10833,10 +10836,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" t="n">
         <v>130086</v>
@@ -11105,10 +11108,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" t="n">
         <v>100305</v>
@@ -11377,10 +11380,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" t="n">
         <v>94479</v>
@@ -11649,10 +11652,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" t="n">
         <v>83468</v>
@@ -11921,10 +11924,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" t="n">
         <v>64780</v>
@@ -12193,10 +12196,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" t="n">
         <v>61253</v>
@@ -12465,10 +12468,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" t="n">
         <v>55036</v>
@@ -12737,10 +12740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" t="n">
         <v>53713</v>
@@ -13009,10 +13012,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" t="n">
         <v>45125</v>
@@ -13281,10 +13284,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="n">
         <v>39125</v>
@@ -13553,10 +13556,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" t="n">
         <v>33889</v>
@@ -13825,10 +13828,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" t="n">
         <v>27921</v>
@@ -14097,10 +14100,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" t="n">
         <v>21669</v>
@@ -14369,10 +14372,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" t="n">
         <v>15577</v>
@@ -14641,10 +14644,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54" t="n">
         <v>8138</v>
@@ -14913,10 +14916,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C55" t="n">
         <v>3718</v>
@@ -15177,10 +15180,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -15281,10 +15284,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" t="n">
         <v>895</v>
@@ -15537,10 +15540,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58" t="n">
         <v>245</v>
@@ -15737,10 +15740,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59" t="n">
         <v>200866</v>
@@ -16009,10 +16012,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" t="n">
         <v>156689</v>
@@ -16281,10 +16284,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61" t="n">
         <v>144569</v>
@@ -16553,10 +16556,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62" t="n">
         <v>122690</v>
@@ -16825,10 +16828,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63" t="n">
         <v>101284</v>
@@ -17097,10 +17100,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64" t="n">
         <v>96248</v>
@@ -17369,10 +17372,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" t="n">
         <v>87314</v>
@@ -17641,10 +17644,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66" t="n">
         <v>78618</v>
@@ -17913,10 +17916,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67" t="n">
         <v>66730</v>
@@ -18185,10 +18188,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" t="n">
         <v>54911</v>
@@ -18457,10 +18460,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" t="n">
         <v>46254</v>
@@ -18729,10 +18732,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" t="n">
         <v>38427</v>
@@ -19001,10 +19004,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" t="n">
         <v>27906</v>
@@ -19273,10 +19276,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" t="n">
         <v>20494</v>
@@ -19545,10 +19548,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73" t="n">
         <v>10294</v>
@@ -19817,10 +19820,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" t="n">
         <v>4418</v>
@@ -20081,10 +20084,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -20185,10 +20188,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="n">
         <v>1032</v>
@@ -20441,10 +20444,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="n">
         <v>280</v>
@@ -20641,10 +20644,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C78" t="n">
         <v>212145</v>
@@ -20913,10 +20916,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C79" t="n">
         <v>168762</v>
@@ -21185,10 +21188,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C80" t="n">
         <v>144798</v>
@@ -21457,10 +21460,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C81" t="n">
         <v>132280</v>
@@ -21729,10 +21732,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" t="n">
         <v>105833</v>
@@ -22001,10 +22004,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" t="n">
         <v>108669</v>
@@ -22273,10 +22276,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" t="n">
         <v>101104</v>
@@ -22545,10 +22548,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" t="n">
         <v>83204</v>
@@ -22817,10 +22820,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" t="n">
         <v>65941</v>
@@ -23089,10 +23092,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" t="n">
         <v>56890</v>
@@ -23361,10 +23364,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" t="n">
         <v>43615</v>
@@ -23633,10 +23636,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C89" t="n">
         <v>39897</v>
@@ -23905,10 +23908,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C90" t="n">
         <v>33853</v>
@@ -24177,10 +24180,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" t="n">
         <v>25015</v>
@@ -24449,10 +24452,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" t="n">
         <v>11908</v>
@@ -24721,10 +24724,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" t="n">
         <v>4972</v>
@@ -24985,10 +24988,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
@@ -25089,10 +25092,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C95" t="n">
         <v>1241</v>
@@ -25345,10 +25348,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C96" t="n">
         <v>303</v>
@@ -25545,10 +25548,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C97" t="n">
         <v>346583</v>
@@ -25817,10 +25820,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C98" t="n">
         <v>251292</v>
@@ -26089,10 +26092,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C99" t="n">
         <v>229791</v>
@@ -26361,10 +26364,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C100" t="n">
         <v>202105</v>
@@ -26633,10 +26636,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C101" t="n">
         <v>166362</v>
@@ -26905,10 +26908,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C102" t="n">
         <v>176945</v>
@@ -27177,10 +27180,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C103" t="n">
         <v>157291</v>
@@ -27449,10 +27452,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C104" t="n">
         <v>129000</v>
@@ -27721,10 +27724,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C105" t="n">
         <v>104443</v>
@@ -27993,10 +27996,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C106" t="n">
         <v>87561</v>
@@ -28265,10 +28268,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C107" t="n">
         <v>70741</v>
@@ -28537,10 +28540,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C108" t="n">
         <v>60008</v>
@@ -28809,10 +28812,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C109" t="n">
         <v>58170</v>
@@ -29081,10 +29084,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C110" t="n">
         <v>44994</v>
@@ -29353,10 +29356,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C111" t="n">
         <v>22855</v>
@@ -29625,10 +29628,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C112" t="n">
         <v>10425</v>
@@ -29889,10 +29892,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -29993,10 +29996,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" t="n">
         <v>3686</v>
@@ -30249,10 +30252,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C115" t="n">
         <v>1287</v>
@@ -30449,10 +30452,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C116" t="n">
         <v>372533</v>
@@ -30721,10 +30724,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C117" t="n">
         <v>294704</v>
@@ -30993,10 +30996,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C118" t="n">
         <v>272302</v>
@@ -31265,10 +31268,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C119" t="n">
         <v>232416</v>
@@ -31537,10 +31540,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C120" t="n">
         <v>163712</v>
@@ -31809,10 +31812,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C121" t="n">
         <v>172363</v>
@@ -32081,10 +32084,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B122" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C122" t="n">
         <v>137056</v>
@@ -32353,10 +32356,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C123" t="n">
         <v>144746</v>
@@ -32625,10 +32628,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C124" t="n">
         <v>105746</v>
@@ -32897,10 +32900,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C125" t="n">
         <v>95543</v>
@@ -33169,10 +33172,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B126" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C126" t="n">
         <v>83304</v>
@@ -33441,10 +33444,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" t="n">
         <v>72866</v>
@@ -33713,10 +33716,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C128" t="n">
         <v>60808</v>
@@ -33985,10 +33988,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C129" t="n">
         <v>45315</v>
@@ -34257,10 +34260,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C130" t="n">
         <v>24128</v>
@@ -34529,10 +34532,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C131" t="n">
         <v>11302</v>
@@ -34793,10 +34796,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B132" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -34897,10 +34900,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C133" t="n">
         <v>3588</v>
@@ -35153,10 +35156,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B134" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C134" t="n">
         <v>853</v>
@@ -35289,10 +35292,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B135" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C135" t="n">
         <v>323842</v>
@@ -35561,10 +35564,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B136" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C136" t="n">
         <v>228781</v>
@@ -35833,10 +35836,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C137" t="n">
         <v>217874</v>
@@ -36105,10 +36108,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C138" t="n">
         <v>189175</v>
@@ -36377,10 +36380,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B139" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C139" t="n">
         <v>145898</v>
@@ -36649,10 +36652,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B140" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C140" t="n">
         <v>159186</v>
@@ -36921,10 +36924,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B141" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C141" t="n">
         <v>124366</v>
@@ -37193,10 +37196,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C142" t="n">
         <v>120883</v>
@@ -37465,10 +37468,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C143" t="n">
         <v>85534</v>
@@ -37737,10 +37740,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C144" t="n">
         <v>76604</v>
@@ -38009,10 +38012,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B145" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C145" t="n">
         <v>64473</v>
@@ -38281,10 +38284,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B146" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C146" t="n">
         <v>62001</v>
@@ -38553,10 +38556,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B147" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C147" t="n">
         <v>57148</v>
@@ -38825,10 +38828,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B148" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C148" t="n">
         <v>43631</v>
@@ -39097,10 +39100,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C149" t="n">
         <v>22254</v>
@@ -39369,10 +39372,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C150" t="n">
         <v>11402</v>
@@ -39633,10 +39636,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -39737,10 +39740,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B152" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C152" t="n">
         <v>3773</v>
@@ -39993,10 +39996,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B153" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C153" t="n">
         <v>1176</v>
@@ -40193,10 +40196,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C154" t="n">
         <v>1176</v>
@@ -40393,10 +40396,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B155" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C155" t="n">
         <v>231435</v>
@@ -40513,10 +40516,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B156" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C156" t="n">
         <v>175937</v>
@@ -40633,10 +40636,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B157" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C157" t="n">
         <v>158623</v>
@@ -40753,10 +40756,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B158" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C158" t="n">
         <v>139468</v>
@@ -40873,10 +40876,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B159" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C159" t="n">
         <v>112531</v>
@@ -40993,10 +40996,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B160" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C160" t="n">
         <v>108101</v>
@@ -41113,10 +41116,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B161" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C161" t="n">
         <v>94669</v>
@@ -41233,10 +41236,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B162" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C162" t="n">
         <v>83085</v>
@@ -41353,10 +41356,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C163" t="n">
         <v>76415</v>
@@ -41473,10 +41476,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B164" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C164" t="n">
         <v>65674</v>
@@ -41593,10 +41596,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B165" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C165" t="n">
         <v>56046</v>
@@ -41713,10 +41716,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B166" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C166" t="n">
         <v>50194</v>
@@ -41833,10 +41836,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B167" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C167" t="n">
         <v>35246</v>
@@ -41953,10 +41956,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B168" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C168" t="n">
         <v>29375</v>
@@ -42073,10 +42076,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B169" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C169" t="n">
         <v>15202</v>
@@ -42193,10 +42196,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B170" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C170" t="n">
         <v>8139</v>
@@ -42313,10 +42316,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B171" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C171"/>
       <c r="D171"/>
@@ -42417,10 +42420,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B172" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C172" t="n">
         <v>2303</v>
@@ -42529,10 +42532,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B173" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C173" t="n">
         <v>500</v>
@@ -42641,10 +42644,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B174" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C174" t="n">
         <v>229163</v>
@@ -42761,10 +42764,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B175" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C175" t="n">
         <v>162715</v>
@@ -42881,10 +42884,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B176" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C176" t="n">
         <v>160746</v>
@@ -43001,10 +43004,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B177" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C177" t="n">
         <v>137663</v>
@@ -43121,10 +43124,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B178" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C178" t="n">
         <v>110689</v>
@@ -43241,10 +43244,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B179" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C179" t="n">
         <v>109029</v>
@@ -43361,10 +43364,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B180" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C180" t="n">
         <v>86840</v>
@@ -43481,10 +43484,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B181" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C181" t="n">
         <v>76195</v>
@@ -43601,10 +43604,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B182" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C182" t="n">
         <v>70188</v>
@@ -43721,10 +43724,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B183" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C183" t="n">
         <v>60574</v>
@@ -43841,10 +43844,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B184" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C184" t="n">
         <v>45219</v>
@@ -43961,10 +43964,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B185" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C185" t="n">
         <v>43636</v>
@@ -44081,10 +44084,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B186" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C186" t="n">
         <v>33920</v>
@@ -44201,10 +44204,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B187" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C187" t="n">
         <v>31820</v>
@@ -44321,10 +44324,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B188" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C188" t="n">
         <v>16472</v>
@@ -44441,10 +44444,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B189" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C189" t="n">
         <v>8285</v>
@@ -44561,10 +44564,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B190" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C190"/>
       <c r="D190"/>
@@ -44665,10 +44668,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B191" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C191" t="n">
         <v>2241</v>
@@ -44777,10 +44780,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B192" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C192" t="n">
         <v>634</v>
@@ -44889,10 +44892,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B193" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C193" t="n">
         <v>202399</v>
@@ -45009,10 +45012,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B194" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C194" t="n">
         <v>145368</v>
@@ -45129,10 +45132,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B195" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C195" t="n">
         <v>133704</v>
@@ -45249,10 +45252,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B196" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C196" t="n">
         <v>117440</v>
@@ -45369,10 +45372,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B197" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C197" t="n">
         <v>95928</v>
@@ -45489,10 +45492,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B198" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C198" t="n">
         <v>93190</v>
@@ -45609,10 +45612,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B199" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C199" t="n">
         <v>73376</v>
@@ -45729,10 +45732,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B200" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C200" t="n">
         <v>65481</v>
@@ -45849,10 +45852,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B201" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C201" t="n">
         <v>61632</v>
@@ -45969,10 +45972,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B202" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C202" t="n">
         <v>52658</v>
@@ -46089,10 +46092,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B203" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C203" t="n">
         <v>42177</v>
@@ -46209,10 +46212,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B204" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C204" t="n">
         <v>39494</v>
@@ -46329,10 +46332,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B205" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C205" t="n">
         <v>30220</v>
@@ -46449,10 +46452,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B206" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C206" t="n">
         <v>27305</v>
@@ -46569,10 +46572,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B207" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C207" t="n">
         <v>14653</v>
@@ -46689,10 +46692,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B208" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C208" t="n">
         <v>8465</v>
@@ -46809,10 +46812,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B209" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C209"/>
       <c r="D209"/>
@@ -46913,10 +46916,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B210" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C210" t="n">
         <v>2611</v>
@@ -47025,10 +47028,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B211" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C211" t="n">
         <v>516</v>
@@ -47137,10 +47140,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B212" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C212" t="n">
         <v>99816</v>
@@ -47257,10 +47260,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B213" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C213" t="n">
         <v>76957</v>
@@ -47377,10 +47380,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B214" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C214" t="n">
         <v>68460</v>
@@ -47497,10 +47500,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B215" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C215" t="n">
         <v>58290</v>
@@ -47617,10 +47620,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B216" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C216" t="n">
         <v>47893</v>
@@ -47737,10 +47740,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B217" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C217" t="n">
         <v>45824</v>
@@ -47857,10 +47860,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B218" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C218" t="n">
         <v>39328</v>
@@ -47977,10 +47980,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B219" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C219" t="n">
         <v>31539</v>
@@ -48097,10 +48100,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B220" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C220" t="n">
         <v>28261</v>
@@ -48217,10 +48220,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B221" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C221" t="n">
         <v>24486</v>
@@ -48337,10 +48340,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B222" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C222" t="n">
         <v>18729</v>
@@ -48457,10 +48460,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B223" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C223" t="n">
         <v>12315</v>
@@ -48577,10 +48580,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B224" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C224" t="n">
         <v>13412</v>
@@ -48697,10 +48700,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B225" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C225" t="n">
         <v>11847</v>
@@ -48817,10 +48820,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B226" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C226" t="n">
         <v>8227</v>
@@ -48937,10 +48940,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B227" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C227" t="n">
         <v>4790</v>
@@ -49057,10 +49060,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B228" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C228"/>
       <c r="D228"/>
@@ -49161,10 +49164,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B229" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C229" t="n">
         <v>1836</v>
@@ -49273,10 +49276,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B230" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C230" t="n">
         <v>738</v>
@@ -49385,10 +49388,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B231" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C231" t="n">
         <v>232811</v>
@@ -49505,10 +49508,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B232" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C232" t="n">
         <v>177816</v>
@@ -49625,10 +49628,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B233" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C233" t="n">
         <v>163847</v>
@@ -49745,10 +49748,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B234" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C234" t="n">
         <v>134492</v>
@@ -49865,10 +49868,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B235" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C235" t="n">
         <v>108365</v>
@@ -49985,10 +49988,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B236" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C236" t="n">
         <v>109136</v>
@@ -50105,10 +50108,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B237" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C237" t="n">
         <v>87340</v>
@@ -50225,10 +50228,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B238" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C238" t="n">
         <v>76102</v>
@@ -50345,10 +50348,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B239" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C239" t="n">
         <v>67016</v>
@@ -50465,10 +50468,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B240" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C240" t="n">
         <v>57827</v>
@@ -50585,10 +50588,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B241" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C241" t="n">
         <v>44688</v>
@@ -50705,10 +50708,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B242" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C242" t="n">
         <v>35015</v>
@@ -50825,10 +50828,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B243" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C243" t="n">
         <v>30380</v>
@@ -50945,10 +50948,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B244" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C244" t="n">
         <v>29366</v>
@@ -51065,10 +51068,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B245" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C245" t="n">
         <v>17930</v>
@@ -51185,10 +51188,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B246" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C246" t="n">
         <v>10329</v>
@@ -51305,10 +51308,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B247" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C247"/>
       <c r="D247"/>
@@ -51409,10 +51412,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B248" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C248" t="n">
         <v>2602</v>
@@ -51521,10 +51524,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B249" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C249" t="n">
         <v>700</v>
@@ -51633,10 +51636,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B250" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C250"/>
       <c r="D250"/>
@@ -51881,10 +51884,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B251" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C251"/>
       <c r="D251"/>
@@ -52129,10 +52132,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B252" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C252"/>
       <c r="D252"/>
@@ -52377,10 +52380,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B253" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C253"/>
       <c r="D253"/>
@@ -52625,10 +52628,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B254" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C254"/>
       <c r="D254"/>
@@ -52873,10 +52876,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B255" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C255"/>
       <c r="D255"/>
@@ -53121,10 +53124,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B256" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C256"/>
       <c r="D256"/>
@@ -53369,10 +53372,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B257" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C257"/>
       <c r="D257"/>
@@ -53617,10 +53620,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B258" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -53865,10 +53868,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B259" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -54113,10 +54116,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B260" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -54361,10 +54364,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B261" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -54609,10 +54612,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B262" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -54857,10 +54860,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B263" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -55105,10 +55108,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B264" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -55353,10 +55356,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B265" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -55593,10 +55596,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B266" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -55833,10 +55836,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B267" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -56017,10 +56020,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B268" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -56175,10 +56178,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B269" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -56407,10 +56410,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B270" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -56639,10 +56642,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B271" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -56871,10 +56874,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B272" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -57103,10 +57106,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B273" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -57335,10 +57338,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B274" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -57567,10 +57570,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B275" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -57799,10 +57802,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B276" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -58031,10 +58034,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B277" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -58263,10 +58266,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B278" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -58495,10 +58498,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B279" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -58727,10 +58730,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B280" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C280"/>
       <c r="D280"/>
@@ -58959,10 +58962,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B281" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C281"/>
       <c r="D281"/>
@@ -59191,10 +59194,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B282" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C282"/>
       <c r="D282"/>
@@ -59423,10 +59426,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B283" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C283"/>
       <c r="D283"/>
@@ -59655,10 +59658,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B284" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C284"/>
       <c r="D284"/>
@@ -59887,10 +59890,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B285" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C285"/>
       <c r="D285"/>
@@ -60119,10 +60122,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B286" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C286"/>
       <c r="D286"/>
@@ -60295,10 +60298,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
+        <v>124</v>
+      </c>
+      <c r="B287" t="s">
         <v>123</v>
-      </c>
-      <c r="B287" t="s">
-        <v>122</v>
       </c>
       <c r="C287"/>
       <c r="D287"/>
@@ -60441,10 +60444,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B288" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C288"/>
       <c r="D288"/>
@@ -60601,10 +60604,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B289" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C289"/>
       <c r="D289"/>
@@ -60743,10 +60746,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B290" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C290"/>
       <c r="D290"/>
@@ -60885,10 +60888,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B291" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C291"/>
       <c r="D291"/>
@@ -61033,10 +61036,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B292" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C292"/>
       <c r="D292"/>
@@ -61177,10 +61180,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B293" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C293"/>
       <c r="D293"/>
@@ -61317,10 +61320,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B294" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C294"/>
       <c r="D294"/>
@@ -61425,10 +61428,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B295" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C295"/>
       <c r="D295"/>
@@ -61577,10 +61580,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B296" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C296"/>
       <c r="D296"/>
@@ -61725,10 +61728,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B297" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C297"/>
       <c r="D297"/>
@@ -61917,10 +61920,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B298" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C298"/>
       <c r="D298"/>
@@ -62165,10 +62168,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B299" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C299"/>
       <c r="D299"/>
@@ -62413,10 +62416,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B300" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C300"/>
       <c r="D300"/>
@@ -62661,10 +62664,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B301" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C301"/>
       <c r="D301"/>
@@ -62909,10 +62912,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B302" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C302"/>
       <c r="D302"/>
@@ -63157,10 +63160,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B303" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C303"/>
       <c r="D303"/>
@@ -63405,10 +63408,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B304" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C304"/>
       <c r="D304"/>
@@ -63653,10 +63656,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B305" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C305"/>
       <c r="D305"/>
@@ -63901,10 +63904,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B306" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C306"/>
       <c r="D306"/>
@@ -64149,10 +64152,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B307" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C307"/>
       <c r="D307"/>
@@ -64397,10 +64400,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B308" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C308"/>
       <c r="D308"/>
@@ -64645,10 +64648,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B309" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C309"/>
       <c r="D309"/>
@@ -64893,10 +64896,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B310" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C310"/>
       <c r="D310"/>
@@ -65141,10 +65144,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B311" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C311"/>
       <c r="D311"/>
@@ -65389,10 +65392,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B312" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C312"/>
       <c r="D312"/>
@@ -65629,10 +65632,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B313" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C313"/>
       <c r="D313"/>
@@ -65869,10 +65872,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B314" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C314"/>
       <c r="D314"/>
@@ -66053,10 +66056,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B315" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C315"/>
       <c r="D315"/>
@@ -66193,10 +66196,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B316" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C316"/>
       <c r="D316"/>
@@ -66393,10 +66396,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B317" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C317"/>
       <c r="D317"/>
@@ -66593,10 +66596,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B318" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C318"/>
       <c r="D318"/>
@@ -66793,10 +66796,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B319" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C319"/>
       <c r="D319"/>
@@ -66993,10 +66996,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B320" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C320"/>
       <c r="D320"/>
@@ -67193,10 +67196,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B321" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C321"/>
       <c r="D321"/>
@@ -67393,10 +67396,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B322" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C322"/>
       <c r="D322"/>
@@ -67593,10 +67596,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B323" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C323"/>
       <c r="D323"/>
@@ -67793,10 +67796,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B324" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C324"/>
       <c r="D324"/>
@@ -67993,10 +67996,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B325" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C325"/>
       <c r="D325"/>
@@ -68193,10 +68196,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B326" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C326"/>
       <c r="D326"/>
@@ -68393,10 +68396,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B327" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C327"/>
       <c r="D327"/>
@@ -68593,10 +68596,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B328" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C328"/>
       <c r="D328"/>
@@ -68793,10 +68796,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B329" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C329"/>
       <c r="D329"/>
@@ -68993,10 +68996,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B330" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C330"/>
       <c r="D330"/>
@@ -69193,10 +69196,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B331" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C331"/>
       <c r="D331"/>
@@ -69393,10 +69396,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B332" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C332"/>
       <c r="D332"/>
@@ -69593,10 +69596,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B333" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C333"/>
       <c r="D333"/>
@@ -69737,10 +69740,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B334" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C334"/>
       <c r="D334"/>
@@ -69865,10 +69868,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B335" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C335"/>
       <c r="D335"/>
@@ -70065,10 +70068,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B336" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C336"/>
       <c r="D336"/>
@@ -70265,10 +70268,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B337" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C337"/>
       <c r="D337"/>
@@ -70465,10 +70468,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B338" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C338"/>
       <c r="D338"/>
@@ -70665,10 +70668,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B339" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C339"/>
       <c r="D339"/>
@@ -70865,10 +70868,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B340" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C340"/>
       <c r="D340"/>
@@ -71065,10 +71068,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B341" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C341"/>
       <c r="D341"/>
@@ -71265,10 +71268,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B342" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C342"/>
       <c r="D342"/>
@@ -71465,10 +71468,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B343" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C343"/>
       <c r="D343"/>
@@ -71665,10 +71668,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B344" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C344"/>
       <c r="D344"/>
@@ -71865,10 +71868,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B345" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C345"/>
       <c r="D345"/>
@@ -72065,10 +72068,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B346" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C346"/>
       <c r="D346"/>
@@ -72265,10 +72268,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B347" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C347"/>
       <c r="D347"/>
@@ -72465,10 +72468,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B348" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C348"/>
       <c r="D348"/>
@@ -72665,10 +72668,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B349" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C349"/>
       <c r="D349"/>
@@ -72865,10 +72868,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B350" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C350"/>
       <c r="D350"/>
@@ -73065,10 +73068,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B351" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C351"/>
       <c r="D351"/>
@@ -73265,10 +73268,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B352" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C352"/>
       <c r="D352"/>
@@ -73409,10 +73412,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B353" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C353"/>
       <c r="D353"/>
@@ -73537,10 +73540,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B354" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C354"/>
       <c r="D354"/>
@@ -73729,10 +73732,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B355" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C355"/>
       <c r="D355"/>
@@ -73921,10 +73924,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B356" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C356"/>
       <c r="D356"/>
@@ -74113,10 +74116,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B357" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C357"/>
       <c r="D357"/>
@@ -74305,10 +74308,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B358" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C358"/>
       <c r="D358"/>
@@ -74497,10 +74500,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B359" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C359"/>
       <c r="D359"/>
@@ -74689,10 +74692,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B360" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C360"/>
       <c r="D360"/>
@@ -74881,10 +74884,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B361" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C361"/>
       <c r="D361"/>
@@ -75073,10 +75076,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B362" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C362"/>
       <c r="D362"/>
@@ -75265,10 +75268,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B363" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C363"/>
       <c r="D363"/>
@@ -75457,10 +75460,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B364" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C364"/>
       <c r="D364"/>
@@ -75649,10 +75652,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B365" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C365"/>
       <c r="D365"/>
@@ -75841,10 +75844,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B366" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C366"/>
       <c r="D366"/>
@@ -76033,10 +76036,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B367" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C367"/>
       <c r="D367"/>
@@ -76225,10 +76228,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B368" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C368"/>
       <c r="D368"/>
@@ -76417,10 +76420,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B369" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C369"/>
       <c r="D369"/>
@@ -76609,10 +76612,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B370" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C370"/>
       <c r="D370"/>
@@ -76801,10 +76804,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B371" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C371"/>
       <c r="D371"/>
@@ -76937,10 +76940,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B372" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C372"/>
       <c r="D372"/>
@@ -77065,10 +77068,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B373" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C373"/>
       <c r="D373"/>
@@ -77257,10 +77260,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B374" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C374"/>
       <c r="D374"/>
@@ -77449,10 +77452,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B375" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C375"/>
       <c r="D375"/>
@@ -77641,10 +77644,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B376" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C376"/>
       <c r="D376"/>
@@ -77833,10 +77836,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B377" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C377"/>
       <c r="D377"/>
@@ -78025,10 +78028,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B378" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C378"/>
       <c r="D378"/>
@@ -78217,10 +78220,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B379" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C379"/>
       <c r="D379"/>
@@ -78409,10 +78412,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B380" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C380"/>
       <c r="D380"/>
@@ -78601,10 +78604,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B381" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C381"/>
       <c r="D381"/>
@@ -78793,10 +78796,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B382" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C382"/>
       <c r="D382"/>
@@ -78985,10 +78988,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B383" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C383"/>
       <c r="D383"/>
@@ -79177,10 +79180,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B384" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C384"/>
       <c r="D384"/>
@@ -79369,10 +79372,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B385" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C385"/>
       <c r="D385"/>
@@ -79561,10 +79564,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B386" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C386"/>
       <c r="D386"/>
@@ -79753,10 +79756,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B387" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C387"/>
       <c r="D387"/>
@@ -79945,10 +79948,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B388" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C388"/>
       <c r="D388"/>
@@ -80137,10 +80140,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B389" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C389"/>
       <c r="D389"/>
@@ -80329,10 +80332,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B390" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C390"/>
       <c r="D390"/>
@@ -80465,10 +80468,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B391" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C391"/>
       <c r="D391"/>
@@ -80593,10 +80596,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B392" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C392"/>
       <c r="D392"/>
@@ -80769,10 +80772,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B393" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C393"/>
       <c r="D393"/>
@@ -80945,10 +80948,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B394" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C394"/>
       <c r="D394"/>
@@ -81121,10 +81124,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B395" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C395"/>
       <c r="D395"/>
@@ -81297,10 +81300,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B396" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C396"/>
       <c r="D396"/>
@@ -81473,10 +81476,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B397" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C397"/>
       <c r="D397"/>
@@ -81649,10 +81652,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B398" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C398"/>
       <c r="D398"/>
@@ -81825,10 +81828,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B399" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C399"/>
       <c r="D399"/>
@@ -82001,10 +82004,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B400" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C400"/>
       <c r="D400"/>
@@ -82177,10 +82180,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B401" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C401"/>
       <c r="D401"/>
@@ -82353,10 +82356,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B402" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C402"/>
       <c r="D402"/>
@@ -82529,10 +82532,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B403" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C403"/>
       <c r="D403"/>
@@ -82705,10 +82708,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B404" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C404"/>
       <c r="D404"/>
@@ -82881,10 +82884,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B405" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C405"/>
       <c r="D405"/>
@@ -83057,10 +83060,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B406" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C406"/>
       <c r="D406"/>
@@ -83233,10 +83236,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B407" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C407"/>
       <c r="D407"/>
@@ -83409,10 +83412,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B408" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C408"/>
       <c r="D408"/>
@@ -83585,10 +83588,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B409" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C409"/>
       <c r="D409"/>
@@ -83705,10 +83708,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B410" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C410"/>
       <c r="D410"/>
@@ -83817,10 +83820,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B411" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C411"/>
       <c r="D411"/>
@@ -83969,10 +83972,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B412" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C412"/>
       <c r="D412"/>
@@ -84121,10 +84124,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B413" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C413"/>
       <c r="D413"/>
@@ -84273,10 +84276,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B414" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C414"/>
       <c r="D414"/>
@@ -84425,10 +84428,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B415" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C415"/>
       <c r="D415"/>
@@ -84577,10 +84580,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B416" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C416"/>
       <c r="D416"/>
@@ -84729,10 +84732,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B417" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C417"/>
       <c r="D417"/>
@@ -84881,10 +84884,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B418" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C418"/>
       <c r="D418"/>
@@ -85033,10 +85036,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B419" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C419"/>
       <c r="D419"/>
@@ -85185,10 +85188,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B420" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C420"/>
       <c r="D420"/>
@@ -85337,10 +85340,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B421" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C421"/>
       <c r="D421"/>
@@ -85489,10 +85492,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B422" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C422"/>
       <c r="D422"/>
@@ -85641,10 +85644,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B423" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C423"/>
       <c r="D423"/>
@@ -85793,10 +85796,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B424" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C424"/>
       <c r="D424"/>
@@ -85945,10 +85948,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B425" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C425"/>
       <c r="D425"/>
@@ -86097,10 +86100,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B426" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C426"/>
       <c r="D426"/>
@@ -86249,10 +86252,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B427" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C427"/>
       <c r="D427"/>
@@ -86401,10 +86404,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B428" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C428"/>
       <c r="D428"/>
@@ -86553,10 +86556,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B429" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C429"/>
       <c r="D429"/>
@@ -86705,10 +86708,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B430" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C430"/>
       <c r="D430"/>
@@ -86855,10 +86858,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B431" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C431"/>
       <c r="D431"/>
@@ -87007,10 +87010,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B432" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C432"/>
       <c r="D432"/>
@@ -87159,10 +87162,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B433" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C433"/>
       <c r="D433"/>
@@ -87311,10 +87314,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B434" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C434"/>
       <c r="D434"/>
@@ -87463,10 +87466,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B435" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C435"/>
       <c r="D435"/>
@@ -87615,10 +87618,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B436" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C436"/>
       <c r="D436"/>
@@ -87767,10 +87770,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B437" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C437"/>
       <c r="D437"/>
@@ -87919,10 +87922,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B438" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C438"/>
       <c r="D438"/>
@@ -88059,10 +88062,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B439" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C439"/>
       <c r="D439"/>
@@ -88211,10 +88214,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B440" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C440"/>
       <c r="D440"/>
@@ -88363,10 +88366,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B441" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C441"/>
       <c r="D441"/>
@@ -88515,10 +88518,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B442" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C442"/>
       <c r="D442"/>
@@ -88667,10 +88670,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B443" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C443"/>
       <c r="D443"/>
@@ -88819,10 +88822,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B444" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C444"/>
       <c r="D444"/>
@@ -88971,10 +88974,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B445" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C445"/>
       <c r="D445"/>
@@ -89123,10 +89126,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B446" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C446"/>
       <c r="D446"/>
@@ -89275,10 +89278,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B447" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C447"/>
       <c r="D447"/>
@@ -89427,10 +89430,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B448" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C448"/>
       <c r="D448"/>
@@ -89579,10 +89582,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B449" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C449"/>
       <c r="D449"/>
@@ -89731,10 +89734,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B450" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C450"/>
       <c r="D450"/>
@@ -89883,10 +89886,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B451" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C451"/>
       <c r="D451"/>
@@ -90035,10 +90038,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B452" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C452"/>
       <c r="D452"/>
@@ -90187,10 +90190,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B453" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C453"/>
       <c r="D453"/>
@@ -90339,10 +90342,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B454" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C454"/>
       <c r="D454"/>
@@ -90491,10 +90494,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B455" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C455"/>
       <c r="D455"/>
@@ -90643,10 +90646,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B456" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C456"/>
       <c r="D456"/>
@@ -90795,10 +90798,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B457" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C457"/>
       <c r="D457"/>
@@ -90947,10 +90950,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B458" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C458"/>
       <c r="D458"/>
@@ -91099,10 +91102,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
+        <v>135</v>
+      </c>
+      <c r="B459" t="s">
         <v>134</v>
-      </c>
-      <c r="B459" t="s">
-        <v>133</v>
       </c>
       <c r="C459"/>
       <c r="D459"/>
@@ -91237,10 +91240,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B460" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C460"/>
       <c r="D460"/>
@@ -91389,10 +91392,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B461" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C461"/>
       <c r="D461"/>
@@ -91541,10 +91544,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B462" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C462"/>
       <c r="D462"/>
@@ -91693,10 +91696,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B463" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C463"/>
       <c r="D463"/>
@@ -91845,10 +91848,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B464" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C464"/>
       <c r="D464"/>
@@ -91997,10 +92000,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B465" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C465"/>
       <c r="D465"/>
@@ -92149,10 +92152,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B466" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C466"/>
       <c r="D466"/>
@@ -92301,10 +92304,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B467" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C467"/>
       <c r="D467"/>
@@ -92453,10 +92456,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B468" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C468"/>
       <c r="D468"/>
@@ -92605,10 +92608,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B469" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C469"/>
       <c r="D469"/>
@@ -92757,10 +92760,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B470" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C470"/>
       <c r="D470"/>
@@ -92909,10 +92912,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B471" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C471"/>
       <c r="D471"/>
@@ -93061,10 +93064,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B472" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C472"/>
       <c r="D472"/>
@@ -93213,10 +93216,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B473" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C473"/>
       <c r="D473"/>
@@ -93365,10 +93368,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B474" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C474"/>
       <c r="D474"/>
@@ -93517,10 +93520,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B475" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C475"/>
       <c r="D475"/>
@@ -93669,10 +93672,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B476" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C476"/>
       <c r="D476"/>
@@ -93821,10 +93824,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B477" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C477"/>
       <c r="D477"/>
@@ -93973,10 +93976,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B478" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C478"/>
       <c r="D478"/>
@@ -94125,10 +94128,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B479" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C479"/>
       <c r="D479"/>
@@ -94277,10 +94280,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B480" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C480"/>
       <c r="D480"/>
@@ -94429,10 +94432,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B481" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C481"/>
       <c r="D481"/>
@@ -94581,10 +94584,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B482" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C482"/>
       <c r="D482"/>
@@ -94733,10 +94736,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B483" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C483"/>
       <c r="D483"/>
@@ -94885,10 +94888,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B484" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C484"/>
       <c r="D484"/>
@@ -95037,10 +95040,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B485" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C485"/>
       <c r="D485"/>
@@ -95189,10 +95192,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B486" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C486"/>
       <c r="D486"/>
@@ -95341,10 +95344,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B487" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C487"/>
       <c r="D487"/>
@@ -95493,10 +95496,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B488" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C488"/>
       <c r="D488"/>
@@ -95645,10 +95648,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B489" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C489"/>
       <c r="D489"/>
@@ -95797,10 +95800,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B490" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C490"/>
       <c r="D490"/>
@@ -95949,10 +95952,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B491" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C491"/>
       <c r="D491"/>
@@ -96101,10 +96104,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B492" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C492"/>
       <c r="D492"/>
@@ -96253,10 +96256,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B493" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C493"/>
       <c r="D493"/>
@@ -96405,10 +96408,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B494" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C494"/>
       <c r="D494"/>
@@ -96557,10 +96560,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B495" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C495"/>
       <c r="D495"/>
@@ -96709,10 +96712,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B496" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C496"/>
       <c r="D496"/>
